--- a/src/test/resources/TestData/RegisteredCar.xlsx
+++ b/src/test/resources/TestData/RegisteredCar.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Motor\Automatiom\Motor-SIT\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Motor\Motor-TIPS 2W\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Sno</t>
   </si>
@@ -35,30 +35,15 @@
     <t>Isuue Policy with Registred Vechile with Comprehensive Coverage</t>
   </si>
   <si>
-    <t>VGE1519</t>
-  </si>
-  <si>
     <t>Johor</t>
   </si>
   <si>
     <t>Comprehensive</t>
   </si>
   <si>
-    <t>Santhosh1</t>
-  </si>
-  <si>
     <t>2 - 5 years</t>
   </si>
   <si>
-    <t>Locked Compound</t>
-  </si>
-  <si>
-    <t>Others(WITH MECHANICAL DEVICE)</t>
-  </si>
-  <si>
-    <t>ABS &amp; Airbags 1</t>
-  </si>
-  <si>
     <t>Scenario</t>
   </si>
   <si>
@@ -83,27 +68,12 @@
     <t>Driving Experience</t>
   </si>
   <si>
-    <t>Garage Type</t>
-  </si>
-  <si>
-    <t>Anti Theft</t>
-  </si>
-  <si>
-    <t>Safety Features</t>
-  </si>
-  <si>
-    <t>760620086186</t>
-  </si>
-  <si>
     <t>Quote Number</t>
   </si>
   <si>
     <t>Quote Status</t>
   </si>
   <si>
-    <t>Ploicy Number</t>
-  </si>
-  <si>
     <t>Vehicle Sum Insured</t>
   </si>
   <si>
@@ -135,12 +105,55 @@
   </si>
   <si>
     <t>Gross Premium</t>
+  </si>
+  <si>
+    <t>JTQ3719</t>
+  </si>
+  <si>
+    <t>Bala</t>
+  </si>
+  <si>
+    <t>990803015587</t>
+  </si>
+  <si>
+    <t>Policy Number</t>
+  </si>
+  <si>
+    <t>1000084169</t>
+  </si>
+  <si>
+    <t>Issued</t>
+  </si>
+  <si>
+    <t>Policy #00000402000032257</t>
+  </si>
+  <si>
+    <t>MYR 6,500.00</t>
+  </si>
+  <si>
+    <t>MYR 167.80</t>
+  </si>
+  <si>
+    <t>MYR 278.28</t>
+  </si>
+  <si>
+    <t>MYR 0.00</t>
+  </si>
+  <si>
+    <t>MYR 22.26</t>
+  </si>
+  <si>
+    <t>MYR 10.00</t>
+  </si>
+  <si>
+    <t>MYR 310.55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -208,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -224,11 +237,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,121 +521,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" customWidth="1"/>
-    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.42578125" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" customWidth="1"/>
-    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.7109375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.7109375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.85546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="7" max="7" customWidth="true" width="31.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.140625"/>
+    <col min="9" max="9" customWidth="true" width="18.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.42578125"/>
+    <col min="12" max="12" customWidth="true" width="28.85546875"/>
+    <col min="13" max="13" customWidth="true" width="20.42578125"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.5703125"/>
+    <col min="16" max="16" customWidth="true" width="13.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="19.7109375"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.42578125"/>
+    <col min="19" max="19" customWidth="true" width="19.42578125"/>
+    <col min="20" max="20" customWidth="true" width="10.85546875"/>
+    <col min="21" max="21" customWidth="true" width="10.5703125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.0"/>
+    <col min="23" max="23" customWidth="true" width="23.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="S1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:23" ht="30">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -633,47 +635,66 @@
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
+      <c r="J2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
